--- a/services/数据库设计.xlsx
+++ b/services/数据库设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\examsystem\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D680294-8A51-4E3F-A8E4-C35D142C4743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1221DCE-325F-4806-A7A2-5E446A21ACAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18324" yWindow="-18132" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22680" yWindow="-13332" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据库设计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="117">
   <si>
     <t>英文表名</t>
   </si>
@@ -294,18 +294,6 @@
     <t>答错数目</t>
   </si>
   <si>
-    <t>score_timeduring</t>
-  </si>
-  <si>
-    <t>用时</t>
-  </si>
-  <si>
-    <t>score_choicelog</t>
-  </si>
-  <si>
-    <t>用户答题记录</t>
-  </si>
-  <si>
     <t>problemset_answercount</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -355,6 +343,66 @@
   </si>
   <si>
     <t>1#5#3#10#6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemset_timeperproblem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每题用时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>score_timestart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始计时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>score_timeend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束计时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录最后一次答题的成绩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于计算速度，一定程度上检测作弊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>score_problemcount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试题目数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于每次题目数量可能不一样，所以需要加上</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -735,19 +783,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK63"/>
+  <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.77734375" style="1" customWidth="1"/>
     <col min="6" max="9" width="9" style="1"/>
     <col min="10" max="10" width="34.109375" style="1" customWidth="1"/>
     <col min="11" max="1025" width="9" style="1"/>
@@ -864,41 +912,41 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1104,333 +1152,340 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32"/>
-      <c r="E32"/>
+      <c r="A32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F32"/>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
+    <row r="33" spans="1:6">
+      <c r="B33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>79</v>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>79</v>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E60" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
@@ -1438,10 +1493,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>11</v>
@@ -1449,13 +1504,44 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/services/数据库设计.xlsx
+++ b/services/数据库设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\examsystem\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1221DCE-325F-4806-A7A2-5E446A21ACAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3545DCE7-8FA4-479E-9CA2-09BCF3C0282C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22680" yWindow="-13332" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据库设计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="117">
   <si>
     <t>英文表名</t>
   </si>
@@ -783,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK65"/>
+  <dimension ref="A1:AMK66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1530,7 +1530,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
@@ -1543,6 +1543,21 @@
       <c r="E65" s="1" t="s">
         <v>116</v>
       </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/services/数据库设计.xlsx
+++ b/services/数据库设计.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\examsystem\services\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3545DCE7-8FA4-479E-9CA2-09BCF3C0282C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="14148" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="数据库设计" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="122">
   <si>
     <t>英文表名</t>
   </si>
@@ -111,6 +100,33 @@
     <t>控制在线时间，防止伪造登录</t>
   </si>
   <si>
+    <t>user_problemsetid</t>
+  </si>
+  <si>
+    <t>当前题库编号</t>
+  </si>
+  <si>
+    <t>user_problemstream</t>
+  </si>
+  <si>
+    <t>题目编号序列</t>
+  </si>
+  <si>
+    <t>String(500)</t>
+  </si>
+  <si>
+    <t>1#5#3#10#6</t>
+  </si>
+  <si>
+    <t>user_problemseat</t>
+  </si>
+  <si>
+    <t>当前题目序号</t>
+  </si>
+  <si>
+    <t>第几题</t>
+  </si>
+  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -186,6 +202,21 @@
     <t>题库标记</t>
   </si>
   <si>
+    <t>problemset_answercount</t>
+  </si>
+  <si>
+    <t>答题数目</t>
+  </si>
+  <si>
+    <t>problemset_timeperproblem</t>
+  </si>
+  <si>
+    <t>每题用时</t>
+  </si>
+  <si>
+    <t>秒</t>
+  </si>
+  <si>
     <t>Problem</t>
   </si>
   <si>
@@ -276,6 +307,9 @@
     <t>积分表</t>
   </si>
   <si>
+    <t>记录最后一次答题的成绩</t>
+  </si>
+  <si>
     <t>score_id</t>
   </si>
   <si>
@@ -294,123 +328,71 @@
     <t>答错数目</t>
   </si>
   <si>
-    <t>problemset_answercount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>答题数目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_problemsetid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_problemstream</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>String(500)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前题目序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前题库编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_problemseat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第几题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目编号序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1#5#3#10#6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>problemset_timeperproblem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每题用时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>score_timestart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>开始计时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于计算速度，一定程度上检测作弊</t>
   </si>
   <si>
     <t>score_timeend</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>结束计时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录最后一次答题的成绩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于计算速度，一定程度上检测作弊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>score_problemcount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试题目数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>由于每次题目数量可能不一样，所以需要加上</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>设置表</t>
+  </si>
+  <si>
+    <t>用于存储系统设置</t>
+  </si>
+  <si>
+    <t>settings_id</t>
+  </si>
+  <si>
+    <t>设置编号</t>
+  </si>
+  <si>
+    <t>settings_key</t>
+  </si>
+  <si>
+    <t>设置键</t>
+  </si>
+  <si>
+    <t>String(50)</t>
+  </si>
+  <si>
+    <t>settings_value</t>
+  </si>
+  <si>
+    <t>设置值</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -431,21 +413,352 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -453,9 +766,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -470,17 +1025,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -529,7 +1128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -562,26 +1161,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -614,23 +1196,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -772,36 +1337,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.7777777777778" style="1" customWidth="1"/>
     <col min="6" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="34.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1111111111111" style="1" customWidth="1"/>
     <col min="11" max="1025" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -832,7 +1392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -846,7 +1406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -857,7 +1417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -910,57 +1470,57 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -980,9 +1540,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -994,9 +1554,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -1005,9 +1565,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -1016,9 +1576,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -1027,12 +1587,12 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -1041,12 +1601,12 @@
         <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>26</v>
@@ -1058,21 +1618,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1089,12 +1649,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1103,99 +1663,99 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="F32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="2:6">
       <c r="B33"/>
       <c r="E33"/>
       <c r="F33"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -1212,12 +1772,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -1226,109 +1786,109 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1348,12 +1908,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
@@ -1373,35 +1933,35 @@
         <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1409,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1438,12 +1998,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>11</v>
@@ -1463,40 +2023,40 @@
         <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>11</v>
@@ -1504,64 +2064,134 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="F66"/>
     </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/services/数据库设计.xlsx
+++ b/services/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14148" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="10308" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="数据库设计" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="125">
   <si>
     <t>英文表名</t>
   </si>
@@ -127,6 +127,18 @@
     <t>第几题</t>
   </si>
   <si>
+    <t>user_dotimestamp</t>
+  </si>
+  <si>
+    <t>操作时间戳</t>
+  </si>
+  <si>
+    <t>String(100)</t>
+  </si>
+  <si>
+    <t>避免短时间重复操作</t>
+  </si>
+  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -173,9 +185,6 @@
   </si>
   <si>
     <t>题库名称</t>
-  </si>
-  <si>
-    <t>String(100)</t>
   </si>
   <si>
     <t>唯一</t>
@@ -387,9 +396,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -416,22 +425,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,9 +443,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,60 +481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -534,9 +495,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,8 +526,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,187 +582,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,6 +773,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -802,30 +850,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -841,21 +865,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -869,148 +878,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1343,10 +1352,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1509,175 +1518,175 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="1" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1685,6 +1694,9 @@
         <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1696,118 +1708,118 @@
         <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33"/>
-      <c r="E33"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F33"/>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+    <row r="34" spans="2:6">
+      <c r="B34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
+      <c r="D36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="1" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1819,18 +1831,18 @@
         <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1841,239 +1853,236 @@
         <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
+      <c r="D49" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="1" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="1" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2087,95 +2096,98 @@
         <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" s="1" t="s">
         <v>114</v>
       </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="1" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2186,7 +2198,18 @@
         <v>121</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>74</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
